--- a/词条.xlsx
+++ b/词条.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongxin/Desktop/keyanlixiang/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22880" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
   <si>
     <t>C语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -909,10 +922,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1041,10 +1050,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连通图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哈密顿图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1053,10 +1058,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>割点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1077,10 +1078,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有向图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有向树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1115,21 +1112,12 @@
     <t>条件编译</t>
   </si>
   <si>
-    <t>整型</t>
-  </si>
-  <si>
     <t>字符型</t>
   </si>
   <si>
     <t>浮点型</t>
   </si>
   <si>
-    <t>单精度浮点型</t>
-  </si>
-  <si>
-    <t>双精度浮点型</t>
-  </si>
-  <si>
     <t>初始化数组</t>
   </si>
   <si>
@@ -1163,9 +1151,6 @@
     <t>引用</t>
   </si>
   <si>
-    <t>变量</t>
-  </si>
-  <si>
     <t>作用域</t>
   </si>
   <si>
@@ -1181,9 +1166,6 @@
     <t>extern</t>
   </si>
   <si>
-    <t>静态变量</t>
-  </si>
-  <si>
     <t>整型变量</t>
   </si>
   <si>
@@ -1193,9 +1175,6 @@
     <t>字符型变量</t>
   </si>
   <si>
-    <t>整型常量</t>
-  </si>
-  <si>
     <t>实型常量</t>
   </si>
   <si>
@@ -1215,12 +1194,6 @@
   </si>
   <si>
     <t>while</t>
-  </si>
-  <si>
-    <t>do while</t>
-  </si>
-  <si>
-    <t>switch</t>
   </si>
   <si>
     <t>函数调用</t>
@@ -1392,17 +1365,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1411,7 +1384,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1430,14 +1403,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1500,7 +1473,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1542,12 +1515,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1577,12 +1550,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1786,2288 +1759,1978 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A454"/>
+  <dimension ref="A1:A392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="G443" sqref="G443"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="D308" sqref="D308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="28.5">
-      <c r="A202" s="2" t="s">
+    <row r="199" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" ht="27">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" ht="28.5">
-      <c r="A229" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" ht="27">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A229" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" ht="27">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" ht="27">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" ht="27">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="42" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" ht="27">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" ht="27">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" ht="40.5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" ht="27">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" ht="27.75">
-      <c r="A244" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" ht="27">
-      <c r="A245" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A256" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="28" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" ht="40.5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" ht="27">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="3" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="5" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A294" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" ht="27">
-      <c r="A299" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
-      <c r="A308" s="3" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
-      <c r="A309" s="3" t="s">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
-      <c r="A310" s="3" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" t="s">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A302" r:id="rId1" display="https://baike.baidu.com/item/%E5%93%88%E5%AF%86%E5%B0%94%E9%A1%BF%E5%9B%BE"/>
+    <hyperlink ref="A296" r:id="rId1" display="https://baike.baidu.com/item/%E5%93%88%E5%AF%86%E5%B0%94%E9%A1%BF%E5%9B%BE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4080,7 +3743,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4093,7 +3756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
